--- a/DataGenerator/XLSXS/SkillData.xlsx
+++ b/DataGenerator/XLSXS/SkillData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\SubProject\Client\Assets\Data\XLSXS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\SubProject\DataGenerator\XLSXS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEE1DCB4-FB3C-4737-A149-157249F2A63A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F2CD75B-226F-4071-B681-2E9E990CCE95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20625" yWindow="0" windowWidth="17550" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
   <si>
     <t>index</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -103,10 +103,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Dash</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Attack</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -163,10 +159,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Parrying</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>WarriorDash_1001tl</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -181,6 +173,21 @@
   <si>
     <t>WarriorBuff_1004tl</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BasicAttack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CharSkill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코볼트 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BasicAttack</t>
   </si>
 </sst>
 </file>
@@ -242,7 +249,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -252,6 +259,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -532,10 +542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAA9BC74-4531-4461-8775-9EC2DB2D6E8A}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -543,7 +553,7 @@
     <col min="1" max="1" width="11.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.625" customWidth="1"/>
     <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
@@ -567,10 +577,10 @@
         <v>13</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -590,10 +600,10 @@
         <v>14</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -629,17 +639,17 @@
       <c r="C4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" t="s">
-        <v>19</v>
+      <c r="D4" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -653,16 +663,16 @@
         <v>16</v>
       </c>
       <c r="D5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" t="s">
         <v>34</v>
-      </c>
-      <c r="E5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -676,16 +686,16 @@
         <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -699,16 +709,30 @@
         <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G7" t="s">
-        <v>38</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>10001001</v>
+      </c>
+      <c r="B8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/DataGenerator/XLSXS/SkillData.xlsx
+++ b/DataGenerator/XLSXS/SkillData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\SubProject\DataGenerator\XLSXS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F2CD75B-226F-4071-B681-2E9E990CCE95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB585A6A-B197-4C42-AC23-A8FBAD43DE30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20625" yWindow="0" windowWidth="17550" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2685" yWindow="2685" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -87,10 +87,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>돌진</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>패링</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -119,10 +115,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>WarriorDash</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>스킬타임라인명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -151,18 +143,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[100101.100102]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[100401.100402.100403]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>WarriorDash_1001tl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>WarriorDef_1002tl</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -188,6 +172,22 @@
   </si>
   <si>
     <t>BasicAttack</t>
+  </si>
+  <si>
+    <t>아처 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ArcherAttack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ArcherAttack_1001tl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -545,7 +545,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -577,10 +577,10 @@
         <v>13</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -600,10 +600,10 @@
         <v>14</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -634,22 +634,22 @@
         <v>1001</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F4" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="G4" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -657,22 +657,22 @@
         <v>1002</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -680,22 +680,22 @@
         <v>1003</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -703,22 +703,22 @@
         <v>1004</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" t="s">
         <v>32</v>
-      </c>
-      <c r="F7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -726,13 +726,13 @@
         <v>10001001</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
